--- a/resultados/Votos_Por_Candidato_Parroquias_Pastaza_Pichincha.xlsx
+++ b/resultados/Votos_Por_Candidato_Parroquias_Pastaza_Pichincha.xlsx
@@ -485,12 +485,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3180</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PARROQUIA_3180</t>
+          <t>PARROQUIA_7</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -523,12 +523,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3180</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PARROQUIA_3180</t>
+          <t>PARROQUIA_7</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -561,12 +561,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3180</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PARROQUIA_3180</t>
+          <t>PARROQUIA_7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -599,12 +599,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3180</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PARROQUIA_3180</t>
+          <t>PARROQUIA_7</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -637,12 +637,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3180</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PARROQUIA_3180</t>
+          <t>PARROQUIA_7</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -675,12 +675,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3180</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PARROQUIA_3180</t>
+          <t>PARROQUIA_7</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -713,12 +713,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3180</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PARROQUIA_3180</t>
+          <t>PARROQUIA_7</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -751,12 +751,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3180</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PARROQUIA_3180</t>
+          <t>PARROQUIA_7</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -789,12 +789,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3180</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PARROQUIA_3180</t>
+          <t>PARROQUIA_7</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -827,12 +827,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3195</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PARROQUIA_3195</t>
+          <t>PARROQUIA_10</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3195</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PARROQUIA_3195</t>
+          <t>PARROQUIA_10</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3195</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PARROQUIA_3195</t>
+          <t>PARROQUIA_10</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3195</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PARROQUIA_3195</t>
+          <t>PARROQUIA_10</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -979,12 +979,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3195</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PARROQUIA_3195</t>
+          <t>PARROQUIA_10</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1017,12 +1017,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3195</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PARROQUIA_3195</t>
+          <t>PARROQUIA_10</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1055,12 +1055,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3195</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PARROQUIA_3195</t>
+          <t>PARROQUIA_10</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3195</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PARROQUIA_3195</t>
+          <t>PARROQUIA_10</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1131,12 +1131,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3195</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PARROQUIA_3195</t>
+          <t>PARROQUIA_10</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1169,12 +1169,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3785</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PARROQUIA_3785</t>
+          <t>PARROQUIA_19</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1207,12 +1207,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3785</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PARROQUIA_3785</t>
+          <t>PARROQUIA_19</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1245,12 +1245,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3785</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PARROQUIA_3785</t>
+          <t>PARROQUIA_19</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1283,12 +1283,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3785</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PARROQUIA_3785</t>
+          <t>PARROQUIA_19</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3785</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PARROQUIA_3785</t>
+          <t>PARROQUIA_19</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3785</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PARROQUIA_3785</t>
+          <t>PARROQUIA_19</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1397,12 +1397,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3785</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PARROQUIA_3785</t>
+          <t>PARROQUIA_19</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1435,12 +1435,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3785</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PARROQUIA_3785</t>
+          <t>PARROQUIA_19</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1473,12 +1473,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3785</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PARROQUIA_3785</t>
+          <t>PARROQUIA_19</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1511,12 +1511,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3985</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PARROQUIA_3985</t>
+          <t>PARROQUIA_33</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3985</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PARROQUIA_3985</t>
+          <t>PARROQUIA_33</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1587,12 +1587,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3985</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PARROQUIA_3985</t>
+          <t>PARROQUIA_33</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1625,12 +1625,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3985</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PARROQUIA_3985</t>
+          <t>PARROQUIA_33</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1663,12 +1663,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3985</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PARROQUIA_3985</t>
+          <t>PARROQUIA_33</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1701,12 +1701,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3985</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PARROQUIA_3985</t>
+          <t>PARROQUIA_33</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3985</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PARROQUIA_3985</t>
+          <t>PARROQUIA_33</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1777,12 +1777,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3985</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PARROQUIA_3985</t>
+          <t>PARROQUIA_33</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1815,12 +1815,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3985</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PARROQUIA_3985</t>
+          <t>PARROQUIA_33</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1853,12 +1853,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4005</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PARROQUIA_4005</t>
+          <t>PARROQUIA_31</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4005</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PARROQUIA_4005</t>
+          <t>PARROQUIA_31</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1929,12 +1929,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4005</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PARROQUIA_4005</t>
+          <t>PARROQUIA_31</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1967,12 +1967,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4005</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>PARROQUIA_4005</t>
+          <t>PARROQUIA_31</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2005,12 +2005,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4005</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>PARROQUIA_4005</t>
+          <t>PARROQUIA_31</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2043,12 +2043,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4005</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PARROQUIA_4005</t>
+          <t>PARROQUIA_31</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2081,12 +2081,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4005</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PARROQUIA_4005</t>
+          <t>PARROQUIA_31</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2119,12 +2119,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4005</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PARROQUIA_4005</t>
+          <t>PARROQUIA_31</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2157,12 +2157,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4005</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PARROQUIA_4005</t>
+          <t>PARROQUIA_31</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2195,12 +2195,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PARROQUIA_4205</t>
+          <t>PARROQUIA_64</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2233,12 +2233,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PARROQUIA_4205</t>
+          <t>PARROQUIA_64</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2271,12 +2271,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PARROQUIA_4205</t>
+          <t>PARROQUIA_64</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2309,12 +2309,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PARROQUIA_4205</t>
+          <t>PARROQUIA_64</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2347,12 +2347,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PARROQUIA_4205</t>
+          <t>PARROQUIA_64</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2385,12 +2385,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PARROQUIA_4205</t>
+          <t>PARROQUIA_64</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2423,12 +2423,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PARROQUIA_4205</t>
+          <t>PARROQUIA_64</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2461,12 +2461,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>PARROQUIA_4205</t>
+          <t>PARROQUIA_64</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2499,12 +2499,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>PARROQUIA_4205</t>
+          <t>PARROQUIA_64</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2537,12 +2537,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4510</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>PARROQUIA_4510</t>
+          <t>PARROQUIA_47</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2575,12 +2575,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4510</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>PARROQUIA_4510</t>
+          <t>PARROQUIA_47</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2613,12 +2613,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4510</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>PARROQUIA_4510</t>
+          <t>PARROQUIA_47</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2651,12 +2651,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4510</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>PARROQUIA_4510</t>
+          <t>PARROQUIA_47</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4510</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>PARROQUIA_4510</t>
+          <t>PARROQUIA_47</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2727,12 +2727,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4510</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>PARROQUIA_4510</t>
+          <t>PARROQUIA_47</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2765,12 +2765,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>4510</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>PARROQUIA_4510</t>
+          <t>PARROQUIA_47</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2803,12 +2803,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4510</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>PARROQUIA_4510</t>
+          <t>PARROQUIA_47</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2841,12 +2841,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>4510</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>PARROQUIA_4510</t>
+          <t>PARROQUIA_47</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2879,12 +2879,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>644</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>PARROQUIA_5825</t>
+          <t>PARROQUIA_644</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2917,12 +2917,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>644</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>PARROQUIA_5825</t>
+          <t>PARROQUIA_644</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2955,12 +2955,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>644</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>PARROQUIA_5825</t>
+          <t>PARROQUIA_644</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2993,12 +2993,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>644</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>PARROQUIA_5825</t>
+          <t>PARROQUIA_644</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3031,12 +3031,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>644</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>PARROQUIA_5825</t>
+          <t>PARROQUIA_644</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3069,12 +3069,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>644</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>PARROQUIA_5825</t>
+          <t>PARROQUIA_644</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3107,12 +3107,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>644</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>PARROQUIA_5825</t>
+          <t>PARROQUIA_644</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3145,12 +3145,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>644</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>PARROQUIA_5825</t>
+          <t>PARROQUIA_644</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3183,12 +3183,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>644</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>PARROQUIA_5825</t>
+          <t>PARROQUIA_644</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3221,12 +3221,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2310</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>PARROQUIA_2310</t>
+          <t>PARROQUIA_46</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3245,10 +3245,10 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H74" t="n">
-        <v>4.29</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="75">
@@ -3259,12 +3259,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2310</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>PARROQUIA_2310</t>
+          <t>PARROQUIA_46</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="H75" t="n">
-        <v>6.6</v>
+        <v>8.91</v>
       </c>
     </row>
     <row r="76">
@@ -3297,12 +3297,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2310</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>PARROQUIA_2310</t>
+          <t>PARROQUIA_46</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3321,10 +3321,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="H76" t="n">
-        <v>9.57</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="77">
@@ -3335,12 +3335,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2310</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>PARROQUIA_2310</t>
+          <t>PARROQUIA_46</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3359,10 +3359,10 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="H77" t="n">
-        <v>40.26</v>
+        <v>43.73</v>
       </c>
     </row>
     <row r="78">
@@ -3373,12 +3373,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2310</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>PARROQUIA_2310</t>
+          <t>PARROQUIA_46</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3397,10 +3397,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H78" t="n">
-        <v>6.27</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="79">
@@ -3411,12 +3411,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2310</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>PARROQUIA_2310</t>
+          <t>PARROQUIA_46</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3435,10 +3435,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H79" t="n">
-        <v>12.54</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="80">
@@ -3449,12 +3449,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2310</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>PARROQUIA_2310</t>
+          <t>PARROQUIA_46</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3473,10 +3473,10 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="H80" t="n">
-        <v>18.81</v>
+        <v>20.96</v>
       </c>
     </row>
     <row r="81">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2310</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>PARROQUIA_2310</t>
+          <t>PARROQUIA_46</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3511,10 +3511,10 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H81" t="n">
-        <v>1.32</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="82">
@@ -3525,12 +3525,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2310</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>PARROQUIA_2310</t>
+          <t>PARROQUIA_46</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3552,7 +3552,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="83">
@@ -3563,12 +3563,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>3840</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>PARROQUIA_3840</t>
+          <t>PARROQUIA_57</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3601,12 +3601,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>3840</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>PARROQUIA_3840</t>
+          <t>PARROQUIA_57</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3639,12 +3639,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>3840</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>PARROQUIA_3840</t>
+          <t>PARROQUIA_57</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3677,12 +3677,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>3840</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>PARROQUIA_3840</t>
+          <t>PARROQUIA_57</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3715,12 +3715,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>3840</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>PARROQUIA_3840</t>
+          <t>PARROQUIA_57</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3753,12 +3753,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>3840</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>PARROQUIA_3840</t>
+          <t>PARROQUIA_57</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3791,12 +3791,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>3840</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>PARROQUIA_3840</t>
+          <t>PARROQUIA_57</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3829,12 +3829,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>3840</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>PARROQUIA_3840</t>
+          <t>PARROQUIA_57</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3867,12 +3867,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>3840</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>PARROQUIA_3840</t>
+          <t>PARROQUIA_57</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3905,12 +3905,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>5650</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>PARROQUIA_5650</t>
+          <t>PARROQUIA_18</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3943,12 +3943,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>5650</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>PARROQUIA_5650</t>
+          <t>PARROQUIA_18</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3981,12 +3981,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>5650</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>PARROQUIA_5650</t>
+          <t>PARROQUIA_18</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4019,12 +4019,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>5650</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>PARROQUIA_5650</t>
+          <t>PARROQUIA_18</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4057,12 +4057,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>5650</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>PARROQUIA_5650</t>
+          <t>PARROQUIA_18</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4095,12 +4095,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>5650</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>PARROQUIA_5650</t>
+          <t>PARROQUIA_18</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4133,12 +4133,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>5650</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>PARROQUIA_5650</t>
+          <t>PARROQUIA_18</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4171,12 +4171,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>5650</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>PARROQUIA_5650</t>
+          <t>PARROQUIA_18</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4209,12 +4209,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>5650</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>PARROQUIA_5650</t>
+          <t>PARROQUIA_18</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4247,12 +4247,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>6395</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>PARROQUIA_6395</t>
+          <t>PARROQUIA_61</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4285,12 +4285,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>6395</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>PARROQUIA_6395</t>
+          <t>PARROQUIA_61</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4323,12 +4323,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>6395</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>PARROQUIA_6395</t>
+          <t>PARROQUIA_61</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4361,12 +4361,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>6395</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>PARROQUIA_6395</t>
+          <t>PARROQUIA_61</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4399,12 +4399,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>6395</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>PARROQUIA_6395</t>
+          <t>PARROQUIA_61</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4437,12 +4437,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>6395</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>PARROQUIA_6395</t>
+          <t>PARROQUIA_61</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4475,12 +4475,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>6395</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>PARROQUIA_6395</t>
+          <t>PARROQUIA_61</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4513,12 +4513,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>6395</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>PARROQUIA_6395</t>
+          <t>PARROQUIA_61</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4551,12 +4551,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>6395</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>PARROQUIA_6395</t>
+          <t>PARROQUIA_61</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4589,12 +4589,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>430</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>PARROQUIA_30</t>
+          <t>PARROQUIA_430</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4627,12 +4627,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>430</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>PARROQUIA_30</t>
+          <t>PARROQUIA_430</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4665,12 +4665,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>430</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>PARROQUIA_30</t>
+          <t>PARROQUIA_430</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4703,12 +4703,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>430</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>PARROQUIA_30</t>
+          <t>PARROQUIA_430</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4741,12 +4741,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>430</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>PARROQUIA_30</t>
+          <t>PARROQUIA_430</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4779,12 +4779,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>430</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>PARROQUIA_30</t>
+          <t>PARROQUIA_430</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4817,12 +4817,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>430</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>PARROQUIA_30</t>
+          <t>PARROQUIA_430</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4855,12 +4855,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>430</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>PARROQUIA_30</t>
+          <t>PARROQUIA_430</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4893,12 +4893,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>430</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>PARROQUIA_30</t>
+          <t>PARROQUIA_430</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4931,12 +4931,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>841</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>PARROQUIA_80</t>
+          <t>PARROQUIA_841</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4969,12 +4969,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>841</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>PARROQUIA_80</t>
+          <t>PARROQUIA_841</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5007,12 +5007,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>841</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>PARROQUIA_80</t>
+          <t>PARROQUIA_841</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5045,12 +5045,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>841</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>PARROQUIA_80</t>
+          <t>PARROQUIA_841</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5083,12 +5083,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>841</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>PARROQUIA_80</t>
+          <t>PARROQUIA_841</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5121,12 +5121,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>841</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>PARROQUIA_80</t>
+          <t>PARROQUIA_841</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5159,12 +5159,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>841</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>PARROQUIA_80</t>
+          <t>PARROQUIA_841</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5197,12 +5197,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>841</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>PARROQUIA_80</t>
+          <t>PARROQUIA_841</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5235,12 +5235,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>841</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>PARROQUIA_80</t>
+          <t>PARROQUIA_841</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5273,12 +5273,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>161</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>PARROQUIA_195</t>
+          <t>PARROQUIA_161</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5297,10 +5297,10 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="H128" t="n">
-        <v>4.31</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="129">
@@ -5311,12 +5311,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>161</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>PARROQUIA_195</t>
+          <t>PARROQUIA_161</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5335,10 +5335,10 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="H129" t="n">
-        <v>13.61</v>
+        <v>12.95</v>
       </c>
     </row>
     <row r="130">
@@ -5349,12 +5349,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>161</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>PARROQUIA_195</t>
+          <t>PARROQUIA_161</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -5373,10 +5373,10 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="H130" t="n">
-        <v>13.89</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="131">
@@ -5387,12 +5387,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>161</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>PARROQUIA_195</t>
+          <t>PARROQUIA_161</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5411,10 +5411,10 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>133</v>
+        <v>358</v>
       </c>
       <c r="H131" t="n">
-        <v>18.47</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="132">
@@ -5425,12 +5425,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>161</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>PARROQUIA_195</t>
+          <t>PARROQUIA_161</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5449,10 +5449,10 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>51</v>
+        <v>207</v>
       </c>
       <c r="H132" t="n">
-        <v>7.08</v>
+        <v>11.91</v>
       </c>
     </row>
     <row r="133">
@@ -5463,12 +5463,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>161</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>PARROQUIA_195</t>
+          <t>PARROQUIA_161</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -5487,10 +5487,10 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H133" t="n">
-        <v>1.94</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="134">
@@ -5501,12 +5501,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>161</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>PARROQUIA_195</t>
+          <t>PARROQUIA_161</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -5525,10 +5525,10 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>280</v>
+        <v>635</v>
       </c>
       <c r="H134" t="n">
-        <v>38.89</v>
+        <v>36.54</v>
       </c>
     </row>
     <row r="135">
@@ -5539,12 +5539,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>161</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>PARROQUIA_195</t>
+          <t>PARROQUIA_161</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -5563,10 +5563,10 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H135" t="n">
-        <v>1.11</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="136">
@@ -5577,12 +5577,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>161</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>PARROQUIA_195</t>
+          <t>PARROQUIA_161</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -5601,10 +5601,10 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H136" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="137">
@@ -5615,12 +5615,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>PARROQUIA_430</t>
+          <t>PARROQUIA_188</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -5639,10 +5639,10 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H137" t="n">
-        <v>2.83</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="138">
@@ -5653,12 +5653,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>PARROQUIA_430</t>
+          <t>PARROQUIA_188</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -5677,10 +5677,10 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>194</v>
+        <v>545</v>
       </c>
       <c r="H138" t="n">
-        <v>14.84</v>
+        <v>19.29</v>
       </c>
     </row>
     <row r="139">
@@ -5691,12 +5691,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>PARROQUIA_430</t>
+          <t>PARROQUIA_188</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -5715,10 +5715,10 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>153</v>
+        <v>303</v>
       </c>
       <c r="H139" t="n">
-        <v>11.71</v>
+        <v>10.72</v>
       </c>
     </row>
     <row r="140">
@@ -5729,12 +5729,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>PARROQUIA_430</t>
+          <t>PARROQUIA_188</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -5753,10 +5753,10 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>194</v>
+        <v>299</v>
       </c>
       <c r="H140" t="n">
-        <v>14.84</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="141">
@@ -5767,12 +5767,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>PARROQUIA_430</t>
+          <t>PARROQUIA_188</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -5791,10 +5791,10 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>98</v>
+        <v>290</v>
       </c>
       <c r="H141" t="n">
-        <v>7.5</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="142">
@@ -5805,12 +5805,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>PARROQUIA_430</t>
+          <t>PARROQUIA_188</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -5829,10 +5829,10 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="H142" t="n">
-        <v>1.45</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="143">
@@ -5843,12 +5843,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>PARROQUIA_430</t>
+          <t>PARROQUIA_188</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -5867,10 +5867,10 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>599</v>
+        <v>1225</v>
       </c>
       <c r="H143" t="n">
-        <v>45.83</v>
+        <v>43.35</v>
       </c>
     </row>
     <row r="144">
@@ -5881,12 +5881,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>PARROQUIA_430</t>
+          <t>PARROQUIA_188</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -5905,10 +5905,10 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="H144" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="145">
@@ -5919,12 +5919,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>PARROQUIA_430</t>
+          <t>PARROQUIA_188</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -5943,10 +5943,10 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H145" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="146">
@@ -5957,12 +5957,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>1445</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>PARROQUIA_440</t>
+          <t>PARROQUIA_1445</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -5995,12 +5995,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>1445</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>PARROQUIA_440</t>
+          <t>PARROQUIA_1445</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -6033,12 +6033,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>1445</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>PARROQUIA_440</t>
+          <t>PARROQUIA_1445</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -6071,12 +6071,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>1445</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>PARROQUIA_440</t>
+          <t>PARROQUIA_1445</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -6109,12 +6109,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>1445</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>PARROQUIA_440</t>
+          <t>PARROQUIA_1445</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -6147,12 +6147,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>1445</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>PARROQUIA_440</t>
+          <t>PARROQUIA_1445</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -6185,12 +6185,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>1445</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>PARROQUIA_440</t>
+          <t>PARROQUIA_1445</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -6223,12 +6223,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>1445</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>PARROQUIA_440</t>
+          <t>PARROQUIA_1445</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -6261,12 +6261,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>1445</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>PARROQUIA_440</t>
+          <t>PARROQUIA_1445</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -6299,12 +6299,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>1079</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>PARROQUIA_625</t>
+          <t>PARROQUIA_1079</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -6337,12 +6337,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>1079</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>PARROQUIA_625</t>
+          <t>PARROQUIA_1079</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -6375,12 +6375,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>1079</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>PARROQUIA_625</t>
+          <t>PARROQUIA_1079</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -6413,12 +6413,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>1079</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>PARROQUIA_625</t>
+          <t>PARROQUIA_1079</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -6451,12 +6451,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>1079</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>PARROQUIA_625</t>
+          <t>PARROQUIA_1079</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -6489,12 +6489,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>1079</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>PARROQUIA_625</t>
+          <t>PARROQUIA_1079</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -6527,12 +6527,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>1079</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>PARROQUIA_625</t>
+          <t>PARROQUIA_1079</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -6565,12 +6565,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>1079</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>PARROQUIA_625</t>
+          <t>PARROQUIA_1079</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -6603,12 +6603,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>1079</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>PARROQUIA_625</t>
+          <t>PARROQUIA_1079</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -6641,12 +6641,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>381</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>PARROQUIA_725</t>
+          <t>PARROQUIA_381</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -6679,12 +6679,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>381</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>PARROQUIA_725</t>
+          <t>PARROQUIA_381</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -6717,12 +6717,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>381</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>PARROQUIA_725</t>
+          <t>PARROQUIA_381</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -6755,12 +6755,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>381</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>PARROQUIA_725</t>
+          <t>PARROQUIA_381</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -6793,12 +6793,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>381</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>PARROQUIA_725</t>
+          <t>PARROQUIA_381</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -6831,12 +6831,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>381</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>PARROQUIA_725</t>
+          <t>PARROQUIA_381</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -6869,12 +6869,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>381</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>PARROQUIA_725</t>
+          <t>PARROQUIA_381</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -6907,12 +6907,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>381</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>PARROQUIA_725</t>
+          <t>PARROQUIA_381</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -6945,12 +6945,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>381</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>PARROQUIA_725</t>
+          <t>PARROQUIA_381</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -6983,12 +6983,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>PARROQUIA_855</t>
+          <t>PARROQUIA_58</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -7021,12 +7021,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>PARROQUIA_855</t>
+          <t>PARROQUIA_58</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -7059,12 +7059,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>PARROQUIA_855</t>
+          <t>PARROQUIA_58</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -7097,12 +7097,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>PARROQUIA_855</t>
+          <t>PARROQUIA_58</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -7135,12 +7135,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>PARROQUIA_855</t>
+          <t>PARROQUIA_58</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -7173,12 +7173,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>PARROQUIA_855</t>
+          <t>PARROQUIA_58</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -7211,12 +7211,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>PARROQUIA_855</t>
+          <t>PARROQUIA_58</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -7249,12 +7249,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>PARROQUIA_855</t>
+          <t>PARROQUIA_58</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -7287,12 +7287,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>PARROQUIA_855</t>
+          <t>PARROQUIA_58</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -7325,12 +7325,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>865</t>
+          <t>194</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>PARROQUIA_865</t>
+          <t>PARROQUIA_194</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -7363,12 +7363,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>865</t>
+          <t>194</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>PARROQUIA_865</t>
+          <t>PARROQUIA_194</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -7401,12 +7401,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>865</t>
+          <t>194</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>PARROQUIA_865</t>
+          <t>PARROQUIA_194</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -7439,12 +7439,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>865</t>
+          <t>194</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>PARROQUIA_865</t>
+          <t>PARROQUIA_194</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -7477,12 +7477,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>865</t>
+          <t>194</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>PARROQUIA_865</t>
+          <t>PARROQUIA_194</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -7515,12 +7515,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>865</t>
+          <t>194</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>PARROQUIA_865</t>
+          <t>PARROQUIA_194</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -7553,12 +7553,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>865</t>
+          <t>194</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>PARROQUIA_865</t>
+          <t>PARROQUIA_194</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -7591,12 +7591,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>865</t>
+          <t>194</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>PARROQUIA_865</t>
+          <t>PARROQUIA_194</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -7629,12 +7629,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>865</t>
+          <t>194</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>PARROQUIA_865</t>
+          <t>PARROQUIA_194</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -7667,12 +7667,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>PARROQUIA_1400</t>
+          <t>PARROQUIA_75</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -7705,12 +7705,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>PARROQUIA_1400</t>
+          <t>PARROQUIA_75</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -7743,12 +7743,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>PARROQUIA_1400</t>
+          <t>PARROQUIA_75</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -7781,12 +7781,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>PARROQUIA_1400</t>
+          <t>PARROQUIA_75</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -7819,12 +7819,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>PARROQUIA_1400</t>
+          <t>PARROQUIA_75</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -7857,12 +7857,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>PARROQUIA_1400</t>
+          <t>PARROQUIA_75</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -7895,12 +7895,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>PARROQUIA_1400</t>
+          <t>PARROQUIA_75</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -7933,12 +7933,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>PARROQUIA_1400</t>
+          <t>PARROQUIA_75</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -7971,12 +7971,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>PARROQUIA_1400</t>
+          <t>PARROQUIA_75</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -8009,12 +8009,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>PARROQUIA_1440</t>
+          <t>PARROQUIA_118</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -8047,12 +8047,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>PARROQUIA_1440</t>
+          <t>PARROQUIA_118</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -8085,12 +8085,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>PARROQUIA_1440</t>
+          <t>PARROQUIA_118</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -8123,12 +8123,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>PARROQUIA_1440</t>
+          <t>PARROQUIA_118</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -8161,12 +8161,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>PARROQUIA_1440</t>
+          <t>PARROQUIA_118</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -8199,12 +8199,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>PARROQUIA_1440</t>
+          <t>PARROQUIA_118</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -8237,12 +8237,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>PARROQUIA_1440</t>
+          <t>PARROQUIA_118</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -8275,12 +8275,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>PARROQUIA_1440</t>
+          <t>PARROQUIA_118</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -8313,12 +8313,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>PARROQUIA_1440</t>
+          <t>PARROQUIA_118</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -8351,12 +8351,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>1475</t>
+          <t>351</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>PARROQUIA_1475</t>
+          <t>PARROQUIA_351</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -8389,12 +8389,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>1475</t>
+          <t>351</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>PARROQUIA_1475</t>
+          <t>PARROQUIA_351</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -8427,12 +8427,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>1475</t>
+          <t>351</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>PARROQUIA_1475</t>
+          <t>PARROQUIA_351</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -8465,12 +8465,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>1475</t>
+          <t>351</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>PARROQUIA_1475</t>
+          <t>PARROQUIA_351</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -8503,12 +8503,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>1475</t>
+          <t>351</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>PARROQUIA_1475</t>
+          <t>PARROQUIA_351</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -8541,12 +8541,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>1475</t>
+          <t>351</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>PARROQUIA_1475</t>
+          <t>PARROQUIA_351</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -8579,12 +8579,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>1475</t>
+          <t>351</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>PARROQUIA_1475</t>
+          <t>PARROQUIA_351</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -8617,12 +8617,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>1475</t>
+          <t>351</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>PARROQUIA_1475</t>
+          <t>PARROQUIA_351</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -8655,12 +8655,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>1475</t>
+          <t>351</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>PARROQUIA_1475</t>
+          <t>PARROQUIA_351</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -8693,12 +8693,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2055</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>PARROQUIA_2055</t>
+          <t>PARROQUIA_251</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -8717,10 +8717,10 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="H218" t="n">
-        <v>1.3</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="219">
@@ -8731,12 +8731,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2055</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>PARROQUIA_2055</t>
+          <t>PARROQUIA_251</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -8755,10 +8755,10 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>210</v>
+        <v>362</v>
       </c>
       <c r="H219" t="n">
-        <v>18.26</v>
+        <v>13.36</v>
       </c>
     </row>
     <row r="220">
@@ -8769,12 +8769,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2055</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>PARROQUIA_2055</t>
+          <t>PARROQUIA_251</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -8793,10 +8793,10 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>142</v>
+        <v>544</v>
       </c>
       <c r="H220" t="n">
-        <v>12.35</v>
+        <v>20.07</v>
       </c>
     </row>
     <row r="221">
@@ -8807,12 +8807,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2055</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>PARROQUIA_2055</t>
+          <t>PARROQUIA_251</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -8831,10 +8831,10 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>126</v>
+        <v>426</v>
       </c>
       <c r="H221" t="n">
-        <v>10.96</v>
+        <v>15.72</v>
       </c>
     </row>
     <row r="222">
@@ -8845,12 +8845,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2055</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>PARROQUIA_2055</t>
+          <t>PARROQUIA_251</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -8869,10 +8869,10 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="H222" t="n">
-        <v>12.09</v>
+        <v>8.630000000000001</v>
       </c>
     </row>
     <row r="223">
@@ -8883,12 +8883,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2055</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>PARROQUIA_2055</t>
+          <t>PARROQUIA_251</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -8907,10 +8907,10 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="H223" t="n">
-        <v>0.96</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="224">
@@ -8921,12 +8921,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2055</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>PARROQUIA_2055</t>
+          <t>PARROQUIA_251</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -8945,10 +8945,10 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>474</v>
+        <v>931</v>
       </c>
       <c r="H224" t="n">
-        <v>41.22</v>
+        <v>34.35</v>
       </c>
     </row>
     <row r="225">
@@ -8959,12 +8959,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2055</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>PARROQUIA_2055</t>
+          <t>PARROQUIA_251</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -8983,10 +8983,10 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H225" t="n">
-        <v>1.3</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="226">
@@ -8997,12 +8997,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2055</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>PARROQUIA_2055</t>
+          <t>PARROQUIA_251</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -9021,10 +9021,10 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="H226" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="227">
@@ -9035,12 +9035,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2265</t>
+          <t>143</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>PARROQUIA_2265</t>
+          <t>PARROQUIA_143</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -9073,12 +9073,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2265</t>
+          <t>143</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>PARROQUIA_2265</t>
+          <t>PARROQUIA_143</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -9111,12 +9111,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2265</t>
+          <t>143</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>PARROQUIA_2265</t>
+          <t>PARROQUIA_143</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -9149,12 +9149,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2265</t>
+          <t>143</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>PARROQUIA_2265</t>
+          <t>PARROQUIA_143</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -9187,12 +9187,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>2265</t>
+          <t>143</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>PARROQUIA_2265</t>
+          <t>PARROQUIA_143</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -9225,12 +9225,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2265</t>
+          <t>143</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>PARROQUIA_2265</t>
+          <t>PARROQUIA_143</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -9263,12 +9263,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2265</t>
+          <t>143</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>PARROQUIA_2265</t>
+          <t>PARROQUIA_143</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -9301,12 +9301,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2265</t>
+          <t>143</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>PARROQUIA_2265</t>
+          <t>PARROQUIA_143</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -9339,12 +9339,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2265</t>
+          <t>143</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>PARROQUIA_2265</t>
+          <t>PARROQUIA_143</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -9377,12 +9377,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2275</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>PARROQUIA_2275</t>
+          <t>PARROQUIA_102</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -9415,12 +9415,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2275</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>PARROQUIA_2275</t>
+          <t>PARROQUIA_102</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -9453,12 +9453,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2275</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>PARROQUIA_2275</t>
+          <t>PARROQUIA_102</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -9491,12 +9491,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2275</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>PARROQUIA_2275</t>
+          <t>PARROQUIA_102</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -9529,12 +9529,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2275</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>PARROQUIA_2275</t>
+          <t>PARROQUIA_102</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -9567,12 +9567,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2275</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>PARROQUIA_2275</t>
+          <t>PARROQUIA_102</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -9605,12 +9605,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2275</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>PARROQUIA_2275</t>
+          <t>PARROQUIA_102</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -9643,12 +9643,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2275</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>PARROQUIA_2275</t>
+          <t>PARROQUIA_102</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -9681,12 +9681,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2275</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>PARROQUIA_2275</t>
+          <t>PARROQUIA_102</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -9719,12 +9719,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2525</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>PARROQUIA_2525</t>
+          <t>PARROQUIA_122</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -9757,12 +9757,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2525</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>PARROQUIA_2525</t>
+          <t>PARROQUIA_122</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -9795,12 +9795,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2525</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>PARROQUIA_2525</t>
+          <t>PARROQUIA_122</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -9833,12 +9833,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2525</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>PARROQUIA_2525</t>
+          <t>PARROQUIA_122</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -9871,12 +9871,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2525</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>PARROQUIA_2525</t>
+          <t>PARROQUIA_122</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -9909,12 +9909,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2525</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>PARROQUIA_2525</t>
+          <t>PARROQUIA_122</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -9947,12 +9947,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2525</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>PARROQUIA_2525</t>
+          <t>PARROQUIA_122</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -9985,12 +9985,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>2525</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>PARROQUIA_2525</t>
+          <t>PARROQUIA_122</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -10023,12 +10023,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2525</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>PARROQUIA_2525</t>
+          <t>PARROQUIA_122</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -10061,12 +10061,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2530</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>PARROQUIA_2530</t>
+          <t>PARROQUIA_153</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -10099,12 +10099,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2530</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>PARROQUIA_2530</t>
+          <t>PARROQUIA_153</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -10137,12 +10137,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2530</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>PARROQUIA_2530</t>
+          <t>PARROQUIA_153</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -10175,12 +10175,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2530</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>PARROQUIA_2530</t>
+          <t>PARROQUIA_153</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -10213,12 +10213,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2530</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>PARROQUIA_2530</t>
+          <t>PARROQUIA_153</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -10251,12 +10251,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2530</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>PARROQUIA_2530</t>
+          <t>PARROQUIA_153</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -10289,12 +10289,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>2530</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>PARROQUIA_2530</t>
+          <t>PARROQUIA_153</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -10327,12 +10327,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>2530</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>PARROQUIA_2530</t>
+          <t>PARROQUIA_153</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -10365,12 +10365,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2530</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>PARROQUIA_2530</t>
+          <t>PARROQUIA_153</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -10403,12 +10403,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2540</t>
+          <t>186</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>PARROQUIA_2540</t>
+          <t>PARROQUIA_186</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -10427,10 +10427,10 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="H263" t="n">
-        <v>3.86</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="264">
@@ -10441,12 +10441,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>2540</t>
+          <t>186</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>PARROQUIA_2540</t>
+          <t>PARROQUIA_186</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -10465,10 +10465,10 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>421</v>
+        <v>487</v>
       </c>
       <c r="H264" t="n">
-        <v>17.65</v>
+        <v>15.16</v>
       </c>
     </row>
     <row r="265">
@@ -10479,12 +10479,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2540</t>
+          <t>186</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>PARROQUIA_2540</t>
+          <t>PARROQUIA_186</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -10503,10 +10503,10 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>224</v>
+        <v>310</v>
       </c>
       <c r="H265" t="n">
-        <v>9.390000000000001</v>
+        <v>9.65</v>
       </c>
     </row>
     <row r="266">
@@ -10517,12 +10517,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2540</t>
+          <t>186</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>PARROQUIA_2540</t>
+          <t>PARROQUIA_186</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -10541,10 +10541,10 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>164</v>
+        <v>268</v>
       </c>
       <c r="H266" t="n">
-        <v>6.88</v>
+        <v>8.34</v>
       </c>
     </row>
     <row r="267">
@@ -10555,12 +10555,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2540</t>
+          <t>186</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>PARROQUIA_2540</t>
+          <t>PARROQUIA_186</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -10579,10 +10579,10 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>229</v>
+        <v>270</v>
       </c>
       <c r="H267" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="268">
@@ -10593,12 +10593,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>2540</t>
+          <t>186</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>PARROQUIA_2540</t>
+          <t>PARROQUIA_186</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -10617,10 +10617,10 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="H268" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="269">
@@ -10631,12 +10631,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2540</t>
+          <t>186</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>PARROQUIA_2540</t>
+          <t>PARROQUIA_186</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -10655,10 +10655,10 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1127</v>
+        <v>1589</v>
       </c>
       <c r="H269" t="n">
-        <v>47.25</v>
+        <v>49.46</v>
       </c>
     </row>
     <row r="270">
@@ -10669,12 +10669,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>2540</t>
+          <t>186</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>PARROQUIA_2540</t>
+          <t>PARROQUIA_186</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -10693,10 +10693,10 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H270" t="n">
-        <v>1.59</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="271">
@@ -10707,12 +10707,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2540</t>
+          <t>186</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>PARROQUIA_2540</t>
+          <t>PARROQUIA_186</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -10731,10 +10731,10 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H271" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="272">
@@ -10745,12 +10745,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>2560</t>
+          <t>111</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>PARROQUIA_2560</t>
+          <t>PARROQUIA_111</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -10783,12 +10783,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>2560</t>
+          <t>111</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>PARROQUIA_2560</t>
+          <t>PARROQUIA_111</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -10821,12 +10821,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>2560</t>
+          <t>111</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>PARROQUIA_2560</t>
+          <t>PARROQUIA_111</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -10859,12 +10859,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>2560</t>
+          <t>111</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>PARROQUIA_2560</t>
+          <t>PARROQUIA_111</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -10897,12 +10897,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2560</t>
+          <t>111</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>PARROQUIA_2560</t>
+          <t>PARROQUIA_111</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -10935,12 +10935,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>2560</t>
+          <t>111</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>PARROQUIA_2560</t>
+          <t>PARROQUIA_111</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -10973,12 +10973,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>2560</t>
+          <t>111</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>PARROQUIA_2560</t>
+          <t>PARROQUIA_111</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -11011,12 +11011,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>2560</t>
+          <t>111</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>PARROQUIA_2560</t>
+          <t>PARROQUIA_111</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -11049,12 +11049,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>2560</t>
+          <t>111</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>PARROQUIA_2560</t>
+          <t>PARROQUIA_111</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -11087,12 +11087,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2690</t>
+          <t>219</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>PARROQUIA_2690</t>
+          <t>PARROQUIA_219</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -11125,12 +11125,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2690</t>
+          <t>219</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>PARROQUIA_2690</t>
+          <t>PARROQUIA_219</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -11163,12 +11163,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2690</t>
+          <t>219</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>PARROQUIA_2690</t>
+          <t>PARROQUIA_219</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -11201,12 +11201,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2690</t>
+          <t>219</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>PARROQUIA_2690</t>
+          <t>PARROQUIA_219</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -11239,12 +11239,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>2690</t>
+          <t>219</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>PARROQUIA_2690</t>
+          <t>PARROQUIA_219</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -11277,12 +11277,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2690</t>
+          <t>219</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>PARROQUIA_2690</t>
+          <t>PARROQUIA_219</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -11315,12 +11315,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>2690</t>
+          <t>219</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>PARROQUIA_2690</t>
+          <t>PARROQUIA_219</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -11353,12 +11353,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>2690</t>
+          <t>219</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>PARROQUIA_2690</t>
+          <t>PARROQUIA_219</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -11391,12 +11391,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>2690</t>
+          <t>219</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>PARROQUIA_2690</t>
+          <t>PARROQUIA_219</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -11429,12 +11429,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>2825</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>PARROQUIA_2825</t>
+          <t>PARROQUIA_57</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -11467,12 +11467,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>2825</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>PARROQUIA_2825</t>
+          <t>PARROQUIA_57</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -11505,12 +11505,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2825</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>PARROQUIA_2825</t>
+          <t>PARROQUIA_57</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -11543,12 +11543,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>2825</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>PARROQUIA_2825</t>
+          <t>PARROQUIA_57</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -11581,12 +11581,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2825</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>PARROQUIA_2825</t>
+          <t>PARROQUIA_57</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -11619,12 +11619,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>2825</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>PARROQUIA_2825</t>
+          <t>PARROQUIA_57</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -11657,12 +11657,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>2825</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>PARROQUIA_2825</t>
+          <t>PARROQUIA_57</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -11695,12 +11695,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2825</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>PARROQUIA_2825</t>
+          <t>PARROQUIA_57</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -11733,12 +11733,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2825</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>PARROQUIA_2825</t>
+          <t>PARROQUIA_57</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -11771,12 +11771,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2855</t>
+          <t>612</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>PARROQUIA_2855</t>
+          <t>PARROQUIA_612</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -11809,12 +11809,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>2855</t>
+          <t>612</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>PARROQUIA_2855</t>
+          <t>PARROQUIA_612</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -11847,12 +11847,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>2855</t>
+          <t>612</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>PARROQUIA_2855</t>
+          <t>PARROQUIA_612</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -11885,12 +11885,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>2855</t>
+          <t>612</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>PARROQUIA_2855</t>
+          <t>PARROQUIA_612</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -11923,12 +11923,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>2855</t>
+          <t>612</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>PARROQUIA_2855</t>
+          <t>PARROQUIA_612</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -11961,12 +11961,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>2855</t>
+          <t>612</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>PARROQUIA_2855</t>
+          <t>PARROQUIA_612</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -11999,12 +11999,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>2855</t>
+          <t>612</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>PARROQUIA_2855</t>
+          <t>PARROQUIA_612</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -12037,12 +12037,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>2855</t>
+          <t>612</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>PARROQUIA_2855</t>
+          <t>PARROQUIA_612</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -12075,12 +12075,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>2855</t>
+          <t>612</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>PARROQUIA_2855</t>
+          <t>PARROQUIA_612</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -12113,12 +12113,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>2895</t>
+          <t>632</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>PARROQUIA_2895</t>
+          <t>PARROQUIA_632</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -12151,12 +12151,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>2895</t>
+          <t>632</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>PARROQUIA_2895</t>
+          <t>PARROQUIA_632</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -12189,12 +12189,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>2895</t>
+          <t>632</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>PARROQUIA_2895</t>
+          <t>PARROQUIA_632</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -12227,12 +12227,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>2895</t>
+          <t>632</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>PARROQUIA_2895</t>
+          <t>PARROQUIA_632</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -12265,12 +12265,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>2895</t>
+          <t>632</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>PARROQUIA_2895</t>
+          <t>PARROQUIA_632</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -12303,12 +12303,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>2895</t>
+          <t>632</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>PARROQUIA_2895</t>
+          <t>PARROQUIA_632</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -12341,12 +12341,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>2895</t>
+          <t>632</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>PARROQUIA_2895</t>
+          <t>PARROQUIA_632</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -12379,12 +12379,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>2895</t>
+          <t>632</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>PARROQUIA_2895</t>
+          <t>PARROQUIA_632</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -12417,12 +12417,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>2895</t>
+          <t>632</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>PARROQUIA_2895</t>
+          <t>PARROQUIA_632</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -12455,12 +12455,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>2925</t>
+          <t>509</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>PARROQUIA_2925</t>
+          <t>PARROQUIA_509</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -12493,12 +12493,12 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>2925</t>
+          <t>509</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>PARROQUIA_2925</t>
+          <t>PARROQUIA_509</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -12531,12 +12531,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>2925</t>
+          <t>509</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>PARROQUIA_2925</t>
+          <t>PARROQUIA_509</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -12569,12 +12569,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>2925</t>
+          <t>509</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>PARROQUIA_2925</t>
+          <t>PARROQUIA_509</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -12607,12 +12607,12 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>2925</t>
+          <t>509</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>PARROQUIA_2925</t>
+          <t>PARROQUIA_509</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -12645,12 +12645,12 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>2925</t>
+          <t>509</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>PARROQUIA_2925</t>
+          <t>PARROQUIA_509</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -12683,12 +12683,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>2925</t>
+          <t>509</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>PARROQUIA_2925</t>
+          <t>PARROQUIA_509</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -12721,12 +12721,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>2925</t>
+          <t>509</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>PARROQUIA_2925</t>
+          <t>PARROQUIA_509</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -12759,12 +12759,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>2925</t>
+          <t>509</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>PARROQUIA_2925</t>
+          <t>PARROQUIA_509</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -12797,12 +12797,12 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>2980</t>
+          <t>327</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>PARROQUIA_2980</t>
+          <t>PARROQUIA_327</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -12835,12 +12835,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>2980</t>
+          <t>327</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>PARROQUIA_2980</t>
+          <t>PARROQUIA_327</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -12873,12 +12873,12 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>2980</t>
+          <t>327</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>PARROQUIA_2980</t>
+          <t>PARROQUIA_327</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -12911,12 +12911,12 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>2980</t>
+          <t>327</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>PARROQUIA_2980</t>
+          <t>PARROQUIA_327</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -12949,12 +12949,12 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>2980</t>
+          <t>327</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>PARROQUIA_2980</t>
+          <t>PARROQUIA_327</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -12987,12 +12987,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>2980</t>
+          <t>327</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>PARROQUIA_2980</t>
+          <t>PARROQUIA_327</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -13025,12 +13025,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>2980</t>
+          <t>327</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>PARROQUIA_2980</t>
+          <t>PARROQUIA_327</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -13063,12 +13063,12 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>2980</t>
+          <t>327</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>PARROQUIA_2980</t>
+          <t>PARROQUIA_327</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -13101,12 +13101,12 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>2980</t>
+          <t>327</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>PARROQUIA_2980</t>
+          <t>PARROQUIA_327</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -13139,12 +13139,12 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>2985</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>PARROQUIA_2985</t>
+          <t>PARROQUIA_250</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -13177,12 +13177,12 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>2985</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>PARROQUIA_2985</t>
+          <t>PARROQUIA_250</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -13215,12 +13215,12 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>2985</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>PARROQUIA_2985</t>
+          <t>PARROQUIA_250</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -13253,12 +13253,12 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>2985</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>PARROQUIA_2985</t>
+          <t>PARROQUIA_250</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -13291,12 +13291,12 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>2985</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>PARROQUIA_2985</t>
+          <t>PARROQUIA_250</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -13329,12 +13329,12 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>2985</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>PARROQUIA_2985</t>
+          <t>PARROQUIA_250</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -13367,12 +13367,12 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>2985</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>PARROQUIA_2985</t>
+          <t>PARROQUIA_250</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -13405,12 +13405,12 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>2985</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>PARROQUIA_2985</t>
+          <t>PARROQUIA_250</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -13443,12 +13443,12 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>2985</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>PARROQUIA_2985</t>
+          <t>PARROQUIA_250</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -13481,12 +13481,12 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>459</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>PARROQUIA_3100</t>
+          <t>PARROQUIA_459</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -13519,12 +13519,12 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>459</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>PARROQUIA_3100</t>
+          <t>PARROQUIA_459</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -13557,12 +13557,12 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>459</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>PARROQUIA_3100</t>
+          <t>PARROQUIA_459</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -13595,12 +13595,12 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>459</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>PARROQUIA_3100</t>
+          <t>PARROQUIA_459</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -13633,12 +13633,12 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>459</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>PARROQUIA_3100</t>
+          <t>PARROQUIA_459</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -13671,12 +13671,12 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>459</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>PARROQUIA_3100</t>
+          <t>PARROQUIA_459</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -13709,12 +13709,12 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>459</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>PARROQUIA_3100</t>
+          <t>PARROQUIA_459</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -13747,12 +13747,12 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>459</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>PARROQUIA_3100</t>
+          <t>PARROQUIA_459</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -13785,12 +13785,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>459</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>PARROQUIA_3100</t>
+          <t>PARROQUIA_459</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -13823,12 +13823,12 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>3325</t>
+          <t>717</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>PARROQUIA_3325</t>
+          <t>PARROQUIA_717</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -13861,12 +13861,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>3325</t>
+          <t>717</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>PARROQUIA_3325</t>
+          <t>PARROQUIA_717</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -13899,12 +13899,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>3325</t>
+          <t>717</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>PARROQUIA_3325</t>
+          <t>PARROQUIA_717</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -13937,12 +13937,12 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>3325</t>
+          <t>717</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>PARROQUIA_3325</t>
+          <t>PARROQUIA_717</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -13975,12 +13975,12 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>3325</t>
+          <t>717</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>PARROQUIA_3325</t>
+          <t>PARROQUIA_717</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -14013,12 +14013,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>3325</t>
+          <t>717</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>PARROQUIA_3325</t>
+          <t>PARROQUIA_717</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -14051,12 +14051,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>3325</t>
+          <t>717</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>PARROQUIA_3325</t>
+          <t>PARROQUIA_717</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -14089,12 +14089,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>3325</t>
+          <t>717</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>PARROQUIA_3325</t>
+          <t>PARROQUIA_717</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -14127,12 +14127,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>3325</t>
+          <t>717</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>PARROQUIA_3325</t>
+          <t>PARROQUIA_717</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -14165,12 +14165,12 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>3475</t>
+          <t>429</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>PARROQUIA_3475</t>
+          <t>PARROQUIA_429</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -14203,12 +14203,12 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>3475</t>
+          <t>429</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>PARROQUIA_3475</t>
+          <t>PARROQUIA_429</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -14241,12 +14241,12 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>3475</t>
+          <t>429</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>PARROQUIA_3475</t>
+          <t>PARROQUIA_429</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -14279,12 +14279,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>3475</t>
+          <t>429</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>PARROQUIA_3475</t>
+          <t>PARROQUIA_429</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -14317,12 +14317,12 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>3475</t>
+          <t>429</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>PARROQUIA_3475</t>
+          <t>PARROQUIA_429</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -14355,12 +14355,12 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>3475</t>
+          <t>429</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>PARROQUIA_3475</t>
+          <t>PARROQUIA_429</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -14393,12 +14393,12 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>3475</t>
+          <t>429</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>PARROQUIA_3475</t>
+          <t>PARROQUIA_429</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -14431,12 +14431,12 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>3475</t>
+          <t>429</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>PARROQUIA_3475</t>
+          <t>PARROQUIA_429</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -14469,12 +14469,12 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>3475</t>
+          <t>429</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>PARROQUIA_3475</t>
+          <t>PARROQUIA_429</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -14507,12 +14507,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>3925</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>PARROQUIA_3925</t>
+          <t>PARROQUIA_72</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -14545,12 +14545,12 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>3925</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>PARROQUIA_3925</t>
+          <t>PARROQUIA_72</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -14583,12 +14583,12 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>3925</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>PARROQUIA_3925</t>
+          <t>PARROQUIA_72</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -14621,12 +14621,12 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>3925</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>PARROQUIA_3925</t>
+          <t>PARROQUIA_72</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -14659,12 +14659,12 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>3925</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>PARROQUIA_3925</t>
+          <t>PARROQUIA_72</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -14697,12 +14697,12 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>3925</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>PARROQUIA_3925</t>
+          <t>PARROQUIA_72</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -14735,12 +14735,12 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>3925</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>PARROQUIA_3925</t>
+          <t>PARROQUIA_72</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -14773,12 +14773,12 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>3925</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>PARROQUIA_3925</t>
+          <t>PARROQUIA_72</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -14811,12 +14811,12 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>3925</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>PARROQUIA_3925</t>
+          <t>PARROQUIA_72</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -14849,12 +14849,12 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>4085</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>PARROQUIA_4085</t>
+          <t>PARROQUIA_1234</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -14887,12 +14887,12 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>4085</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>PARROQUIA_4085</t>
+          <t>PARROQUIA_1234</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -14925,12 +14925,12 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>4085</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>PARROQUIA_4085</t>
+          <t>PARROQUIA_1234</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -14963,12 +14963,12 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>4085</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>PARROQUIA_4085</t>
+          <t>PARROQUIA_1234</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -15001,12 +15001,12 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>4085</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>PARROQUIA_4085</t>
+          <t>PARROQUIA_1234</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -15039,12 +15039,12 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>4085</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>PARROQUIA_4085</t>
+          <t>PARROQUIA_1234</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -15077,12 +15077,12 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>4085</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>PARROQUIA_4085</t>
+          <t>PARROQUIA_1234</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -15115,12 +15115,12 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>4085</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>PARROQUIA_4085</t>
+          <t>PARROQUIA_1234</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -15153,12 +15153,12 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>4085</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>PARROQUIA_4085</t>
+          <t>PARROQUIA_1234</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -15191,12 +15191,12 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>4290</t>
+          <t>592</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>PARROQUIA_4290</t>
+          <t>PARROQUIA_592</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -15229,12 +15229,12 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>4290</t>
+          <t>592</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>PARROQUIA_4290</t>
+          <t>PARROQUIA_592</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -15267,12 +15267,12 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>4290</t>
+          <t>592</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>PARROQUIA_4290</t>
+          <t>PARROQUIA_592</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -15305,12 +15305,12 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>4290</t>
+          <t>592</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>PARROQUIA_4290</t>
+          <t>PARROQUIA_592</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -15343,12 +15343,12 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>4290</t>
+          <t>592</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>PARROQUIA_4290</t>
+          <t>PARROQUIA_592</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -15381,12 +15381,12 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>4290</t>
+          <t>592</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>PARROQUIA_4290</t>
+          <t>PARROQUIA_592</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -15419,12 +15419,12 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>4290</t>
+          <t>592</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>PARROQUIA_4290</t>
+          <t>PARROQUIA_592</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -15457,12 +15457,12 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>4290</t>
+          <t>592</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>PARROQUIA_4290</t>
+          <t>PARROQUIA_592</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -15495,12 +15495,12 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>4290</t>
+          <t>592</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>PARROQUIA_4290</t>
+          <t>PARROQUIA_592</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -15533,12 +15533,12 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>4325</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>PARROQUIA_4325</t>
+          <t>PARROQUIA_188</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -15557,10 +15557,10 @@
         </is>
       </c>
       <c r="G398" t="n">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="H398" t="n">
-        <v>1.12</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="399">
@@ -15571,12 +15571,12 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>4325</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>PARROQUIA_4325</t>
+          <t>PARROQUIA_188</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -15595,10 +15595,10 @@
         </is>
       </c>
       <c r="G399" t="n">
-        <v>351</v>
+        <v>545</v>
       </c>
       <c r="H399" t="n">
-        <v>23.11</v>
+        <v>19.29</v>
       </c>
     </row>
     <row r="400">
@@ -15609,12 +15609,12 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>4325</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>PARROQUIA_4325</t>
+          <t>PARROQUIA_188</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -15633,10 +15633,10 @@
         </is>
       </c>
       <c r="G400" t="n">
-        <v>150</v>
+        <v>303</v>
       </c>
       <c r="H400" t="n">
-        <v>9.869999999999999</v>
+        <v>10.72</v>
       </c>
     </row>
     <row r="401">
@@ -15647,12 +15647,12 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>4325</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>PARROQUIA_4325</t>
+          <t>PARROQUIA_188</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -15671,10 +15671,10 @@
         </is>
       </c>
       <c r="G401" t="n">
-        <v>105</v>
+        <v>299</v>
       </c>
       <c r="H401" t="n">
-        <v>6.91</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="402">
@@ -15685,12 +15685,12 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>4325</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>PARROQUIA_4325</t>
+          <t>PARROQUIA_188</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -15709,10 +15709,10 @@
         </is>
       </c>
       <c r="G402" t="n">
-        <v>192</v>
+        <v>290</v>
       </c>
       <c r="H402" t="n">
-        <v>12.64</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="403">
@@ -15723,12 +15723,12 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>4325</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>PARROQUIA_4325</t>
+          <t>PARROQUIA_188</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -15747,10 +15747,10 @@
         </is>
       </c>
       <c r="G403" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H403" t="n">
-        <v>3.49</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="404">
@@ -15761,12 +15761,12 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>4325</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>PARROQUIA_4325</t>
+          <t>PARROQUIA_188</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -15785,10 +15785,10 @@
         </is>
       </c>
       <c r="G404" t="n">
-        <v>626</v>
+        <v>1225</v>
       </c>
       <c r="H404" t="n">
-        <v>41.21</v>
+        <v>43.35</v>
       </c>
     </row>
     <row r="405">
@@ -15799,12 +15799,12 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>4325</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>PARROQUIA_4325</t>
+          <t>PARROQUIA_188</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -15823,10 +15823,10 @@
         </is>
       </c>
       <c r="G405" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H405" t="n">
-        <v>1.32</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="406">
@@ -15837,12 +15837,12 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>4325</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>PARROQUIA_4325</t>
+          <t>PARROQUIA_188</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -15861,10 +15861,10 @@
         </is>
       </c>
       <c r="G406" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H406" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="407">
@@ -15875,12 +15875,12 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>5015</t>
+          <t>5845</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>PARROQUIA_5015</t>
+          <t>PARROQUIA_5845</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -15913,12 +15913,12 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>5015</t>
+          <t>5845</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>PARROQUIA_5015</t>
+          <t>PARROQUIA_5845</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -15951,12 +15951,12 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>5015</t>
+          <t>5845</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>PARROQUIA_5015</t>
+          <t>PARROQUIA_5845</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -15989,12 +15989,12 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>5015</t>
+          <t>5845</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>PARROQUIA_5015</t>
+          <t>PARROQUIA_5845</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -16027,12 +16027,12 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>5015</t>
+          <t>5845</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>PARROQUIA_5015</t>
+          <t>PARROQUIA_5845</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -16065,12 +16065,12 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>5015</t>
+          <t>5845</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>PARROQUIA_5015</t>
+          <t>PARROQUIA_5845</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -16103,12 +16103,12 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>5015</t>
+          <t>5845</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>PARROQUIA_5015</t>
+          <t>PARROQUIA_5845</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -16141,12 +16141,12 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>5015</t>
+          <t>5845</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>PARROQUIA_5015</t>
+          <t>PARROQUIA_5845</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -16179,12 +16179,12 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>5015</t>
+          <t>5845</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>PARROQUIA_5015</t>
+          <t>PARROQUIA_5845</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -16217,12 +16217,12 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>5110</t>
+          <t>1789</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>PARROQUIA_5110</t>
+          <t>PARROQUIA_1789</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -16255,12 +16255,12 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>5110</t>
+          <t>1789</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>PARROQUIA_5110</t>
+          <t>PARROQUIA_1789</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -16293,12 +16293,12 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>5110</t>
+          <t>1789</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>PARROQUIA_5110</t>
+          <t>PARROQUIA_1789</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -16331,12 +16331,12 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>5110</t>
+          <t>1789</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>PARROQUIA_5110</t>
+          <t>PARROQUIA_1789</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -16369,12 +16369,12 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>5110</t>
+          <t>1789</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>PARROQUIA_5110</t>
+          <t>PARROQUIA_1789</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -16407,12 +16407,12 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>5110</t>
+          <t>1789</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>PARROQUIA_5110</t>
+          <t>PARROQUIA_1789</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -16445,12 +16445,12 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>5110</t>
+          <t>1789</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>PARROQUIA_5110</t>
+          <t>PARROQUIA_1789</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -16483,12 +16483,12 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>5110</t>
+          <t>1789</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>PARROQUIA_5110</t>
+          <t>PARROQUIA_1789</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
@@ -16521,12 +16521,12 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>5110</t>
+          <t>1789</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>PARROQUIA_5110</t>
+          <t>PARROQUIA_1789</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -16559,12 +16559,12 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>5220</t>
+          <t>5102</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>PARROQUIA_5220</t>
+          <t>PARROQUIA_5102</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -16597,12 +16597,12 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>5220</t>
+          <t>5102</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>PARROQUIA_5220</t>
+          <t>PARROQUIA_5102</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -16635,12 +16635,12 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>5220</t>
+          <t>5102</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>PARROQUIA_5220</t>
+          <t>PARROQUIA_5102</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -16673,12 +16673,12 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>5220</t>
+          <t>5102</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>PARROQUIA_5220</t>
+          <t>PARROQUIA_5102</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -16711,12 +16711,12 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>5220</t>
+          <t>5102</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>PARROQUIA_5220</t>
+          <t>PARROQUIA_5102</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
@@ -16749,12 +16749,12 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>5220</t>
+          <t>5102</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>PARROQUIA_5220</t>
+          <t>PARROQUIA_5102</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -16787,12 +16787,12 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>5220</t>
+          <t>5102</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>PARROQUIA_5220</t>
+          <t>PARROQUIA_5102</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
@@ -16825,12 +16825,12 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>5220</t>
+          <t>5102</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>PARROQUIA_5220</t>
+          <t>PARROQUIA_5102</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -16863,12 +16863,12 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>5220</t>
+          <t>5102</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>PARROQUIA_5220</t>
+          <t>PARROQUIA_5102</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -16901,12 +16901,12 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>3574</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>PARROQUIA_5235</t>
+          <t>PARROQUIA_3574</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -16939,12 +16939,12 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>3574</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>PARROQUIA_5235</t>
+          <t>PARROQUIA_3574</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -16977,12 +16977,12 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>3574</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>PARROQUIA_5235</t>
+          <t>PARROQUIA_3574</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -17015,12 +17015,12 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>3574</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>PARROQUIA_5235</t>
+          <t>PARROQUIA_3574</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -17053,12 +17053,12 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>3574</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>PARROQUIA_5235</t>
+          <t>PARROQUIA_3574</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -17091,12 +17091,12 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>3574</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>PARROQUIA_5235</t>
+          <t>PARROQUIA_3574</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -17129,12 +17129,12 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>3574</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>PARROQUIA_5235</t>
+          <t>PARROQUIA_3574</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -17167,12 +17167,12 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>3574</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>PARROQUIA_5235</t>
+          <t>PARROQUIA_3574</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -17205,12 +17205,12 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>3574</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>PARROQUIA_5235</t>
+          <t>PARROQUIA_3574</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -17243,12 +17243,12 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>5260</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>PARROQUIA_5260</t>
+          <t>PARROQUIA_4603</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -17281,12 +17281,12 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>5260</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>PARROQUIA_5260</t>
+          <t>PARROQUIA_4603</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
@@ -17319,12 +17319,12 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>5260</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>PARROQUIA_5260</t>
+          <t>PARROQUIA_4603</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -17357,12 +17357,12 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>5260</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>PARROQUIA_5260</t>
+          <t>PARROQUIA_4603</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -17395,12 +17395,12 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>5260</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>PARROQUIA_5260</t>
+          <t>PARROQUIA_4603</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -17433,12 +17433,12 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>5260</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>PARROQUIA_5260</t>
+          <t>PARROQUIA_4603</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -17471,12 +17471,12 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>5260</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>PARROQUIA_5260</t>
+          <t>PARROQUIA_4603</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -17509,12 +17509,12 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>5260</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>PARROQUIA_5260</t>
+          <t>PARROQUIA_4603</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -17547,12 +17547,12 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>5260</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>PARROQUIA_5260</t>
+          <t>PARROQUIA_4603</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -17585,12 +17585,12 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>5325</t>
+          <t>1345</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>PARROQUIA_5325</t>
+          <t>PARROQUIA_1345</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -17623,12 +17623,12 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>5325</t>
+          <t>1345</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>PARROQUIA_5325</t>
+          <t>PARROQUIA_1345</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -17661,12 +17661,12 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>5325</t>
+          <t>1345</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>PARROQUIA_5325</t>
+          <t>PARROQUIA_1345</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -17699,12 +17699,12 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>5325</t>
+          <t>1345</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>PARROQUIA_5325</t>
+          <t>PARROQUIA_1345</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -17737,12 +17737,12 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>5325</t>
+          <t>1345</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>PARROQUIA_5325</t>
+          <t>PARROQUIA_1345</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -17775,12 +17775,12 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>5325</t>
+          <t>1345</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>PARROQUIA_5325</t>
+          <t>PARROQUIA_1345</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -17813,12 +17813,12 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>5325</t>
+          <t>1345</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>PARROQUIA_5325</t>
+          <t>PARROQUIA_1345</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -17851,12 +17851,12 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>5325</t>
+          <t>1345</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>PARROQUIA_5325</t>
+          <t>PARROQUIA_1345</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -17889,12 +17889,12 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>5325</t>
+          <t>1345</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>PARROQUIA_5325</t>
+          <t>PARROQUIA_1345</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -17927,12 +17927,12 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>5410</t>
+          <t>255</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>PARROQUIA_5410</t>
+          <t>PARROQUIA_255</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -17965,12 +17965,12 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>5410</t>
+          <t>255</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>PARROQUIA_5410</t>
+          <t>PARROQUIA_255</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -18003,12 +18003,12 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>5410</t>
+          <t>255</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>PARROQUIA_5410</t>
+          <t>PARROQUIA_255</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -18041,12 +18041,12 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>5410</t>
+          <t>255</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>PARROQUIA_5410</t>
+          <t>PARROQUIA_255</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -18079,12 +18079,12 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>5410</t>
+          <t>255</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>PARROQUIA_5410</t>
+          <t>PARROQUIA_255</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -18117,12 +18117,12 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>5410</t>
+          <t>255</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>PARROQUIA_5410</t>
+          <t>PARROQUIA_255</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -18155,12 +18155,12 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>5410</t>
+          <t>255</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>PARROQUIA_5410</t>
+          <t>PARROQUIA_255</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -18193,12 +18193,12 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>5410</t>
+          <t>255</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>PARROQUIA_5410</t>
+          <t>PARROQUIA_255</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -18231,12 +18231,12 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>5410</t>
+          <t>255</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>PARROQUIA_5410</t>
+          <t>PARROQUIA_255</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -18269,12 +18269,12 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>5435</t>
+          <t>181</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>PARROQUIA_5435</t>
+          <t>PARROQUIA_181</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -18307,12 +18307,12 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>5435</t>
+          <t>181</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>PARROQUIA_5435</t>
+          <t>PARROQUIA_181</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -18345,12 +18345,12 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>5435</t>
+          <t>181</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>PARROQUIA_5435</t>
+          <t>PARROQUIA_181</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -18383,12 +18383,12 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>5435</t>
+          <t>181</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>PARROQUIA_5435</t>
+          <t>PARROQUIA_181</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -18421,12 +18421,12 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>5435</t>
+          <t>181</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>PARROQUIA_5435</t>
+          <t>PARROQUIA_181</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -18459,12 +18459,12 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>5435</t>
+          <t>181</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>PARROQUIA_5435</t>
+          <t>PARROQUIA_181</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -18497,12 +18497,12 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>5435</t>
+          <t>181</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>PARROQUIA_5435</t>
+          <t>PARROQUIA_181</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -18535,12 +18535,12 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>5435</t>
+          <t>181</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>PARROQUIA_5435</t>
+          <t>PARROQUIA_181</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
@@ -18573,12 +18573,12 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>5435</t>
+          <t>181</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>PARROQUIA_5435</t>
+          <t>PARROQUIA_181</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -18611,12 +18611,12 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>5530</t>
+          <t>454</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>PARROQUIA_5530</t>
+          <t>PARROQUIA_454</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -18649,12 +18649,12 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>5530</t>
+          <t>454</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>PARROQUIA_5530</t>
+          <t>PARROQUIA_454</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
@@ -18687,12 +18687,12 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>5530</t>
+          <t>454</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>PARROQUIA_5530</t>
+          <t>PARROQUIA_454</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -18725,12 +18725,12 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>5530</t>
+          <t>454</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>PARROQUIA_5530</t>
+          <t>PARROQUIA_454</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -18763,12 +18763,12 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>5530</t>
+          <t>454</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>PARROQUIA_5530</t>
+          <t>PARROQUIA_454</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -18801,12 +18801,12 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>5530</t>
+          <t>454</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>PARROQUIA_5530</t>
+          <t>PARROQUIA_454</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -18839,12 +18839,12 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>5530</t>
+          <t>454</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>PARROQUIA_5530</t>
+          <t>PARROQUIA_454</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
@@ -18877,12 +18877,12 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>5530</t>
+          <t>454</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>PARROQUIA_5530</t>
+          <t>PARROQUIA_454</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -18915,12 +18915,12 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>5530</t>
+          <t>454</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>PARROQUIA_5530</t>
+          <t>PARROQUIA_454</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
@@ -18953,12 +18953,12 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>5535</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>PARROQUIA_5535</t>
+          <t>PARROQUIA_1049</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
@@ -18991,12 +18991,12 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>5535</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>PARROQUIA_5535</t>
+          <t>PARROQUIA_1049</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
@@ -19029,12 +19029,12 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>5535</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>PARROQUIA_5535</t>
+          <t>PARROQUIA_1049</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -19067,12 +19067,12 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>5535</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>PARROQUIA_5535</t>
+          <t>PARROQUIA_1049</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -19105,12 +19105,12 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>5535</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>PARROQUIA_5535</t>
+          <t>PARROQUIA_1049</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
@@ -19143,12 +19143,12 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>5535</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>PARROQUIA_5535</t>
+          <t>PARROQUIA_1049</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
@@ -19181,12 +19181,12 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>5535</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>PARROQUIA_5535</t>
+          <t>PARROQUIA_1049</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -19219,12 +19219,12 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>5535</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>PARROQUIA_5535</t>
+          <t>PARROQUIA_1049</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
@@ -19257,12 +19257,12 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>5535</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>PARROQUIA_5535</t>
+          <t>PARROQUIA_1049</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
@@ -19295,12 +19295,12 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>5540</t>
+          <t>3255</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>PARROQUIA_5540</t>
+          <t>PARROQUIA_3255</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
@@ -19333,12 +19333,12 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>5540</t>
+          <t>3255</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>PARROQUIA_5540</t>
+          <t>PARROQUIA_3255</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
@@ -19371,12 +19371,12 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>5540</t>
+          <t>3255</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>PARROQUIA_5540</t>
+          <t>PARROQUIA_3255</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
@@ -19409,12 +19409,12 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>5540</t>
+          <t>3255</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>PARROQUIA_5540</t>
+          <t>PARROQUIA_3255</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
@@ -19447,12 +19447,12 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>5540</t>
+          <t>3255</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>PARROQUIA_5540</t>
+          <t>PARROQUIA_3255</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
@@ -19485,12 +19485,12 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>5540</t>
+          <t>3255</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>PARROQUIA_5540</t>
+          <t>PARROQUIA_3255</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
@@ -19523,12 +19523,12 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>5540</t>
+          <t>3255</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>PARROQUIA_5540</t>
+          <t>PARROQUIA_3255</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
@@ -19561,12 +19561,12 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>5540</t>
+          <t>3255</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>PARROQUIA_5540</t>
+          <t>PARROQUIA_3255</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
@@ -19599,12 +19599,12 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>5540</t>
+          <t>3255</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>PARROQUIA_5540</t>
+          <t>PARROQUIA_3255</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
@@ -19637,12 +19637,12 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>5575</t>
+          <t>615</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>PARROQUIA_5575</t>
+          <t>PARROQUIA_615</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
@@ -19675,12 +19675,12 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>5575</t>
+          <t>615</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>PARROQUIA_5575</t>
+          <t>PARROQUIA_615</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
@@ -19713,12 +19713,12 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>5575</t>
+          <t>615</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>PARROQUIA_5575</t>
+          <t>PARROQUIA_615</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
@@ -19751,12 +19751,12 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>5575</t>
+          <t>615</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>PARROQUIA_5575</t>
+          <t>PARROQUIA_615</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
@@ -19789,12 +19789,12 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>5575</t>
+          <t>615</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>PARROQUIA_5575</t>
+          <t>PARROQUIA_615</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
@@ -19827,12 +19827,12 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>5575</t>
+          <t>615</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>PARROQUIA_5575</t>
+          <t>PARROQUIA_615</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
@@ -19865,12 +19865,12 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>5575</t>
+          <t>615</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>PARROQUIA_5575</t>
+          <t>PARROQUIA_615</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -19903,12 +19903,12 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>5575</t>
+          <t>615</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>PARROQUIA_5575</t>
+          <t>PARROQUIA_615</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -19941,12 +19941,12 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>5575</t>
+          <t>615</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>PARROQUIA_5575</t>
+          <t>PARROQUIA_615</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
@@ -19979,12 +19979,12 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>PARROQUIA_5935</t>
+          <t>PARROQUIA_1367</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
@@ -20017,12 +20017,12 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>PARROQUIA_5935</t>
+          <t>PARROQUIA_1367</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
@@ -20055,12 +20055,12 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>PARROQUIA_5935</t>
+          <t>PARROQUIA_1367</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
@@ -20093,12 +20093,12 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>PARROQUIA_5935</t>
+          <t>PARROQUIA_1367</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
@@ -20131,12 +20131,12 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>PARROQUIA_5935</t>
+          <t>PARROQUIA_1367</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
@@ -20169,12 +20169,12 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>PARROQUIA_5935</t>
+          <t>PARROQUIA_1367</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -20207,12 +20207,12 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>PARROQUIA_5935</t>
+          <t>PARROQUIA_1367</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
@@ -20245,12 +20245,12 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>PARROQUIA_5935</t>
+          <t>PARROQUIA_1367</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -20283,12 +20283,12 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>PARROQUIA_5935</t>
+          <t>PARROQUIA_1367</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
@@ -20321,12 +20321,12 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>5985</t>
+          <t>462</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>PARROQUIA_5985</t>
+          <t>PARROQUIA_462</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
@@ -20359,12 +20359,12 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>5985</t>
+          <t>462</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>PARROQUIA_5985</t>
+          <t>PARROQUIA_462</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
@@ -20397,12 +20397,12 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>5985</t>
+          <t>462</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>PARROQUIA_5985</t>
+          <t>PARROQUIA_462</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
@@ -20435,12 +20435,12 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>5985</t>
+          <t>462</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>PARROQUIA_5985</t>
+          <t>PARROQUIA_462</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
@@ -20473,12 +20473,12 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>5985</t>
+          <t>462</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>PARROQUIA_5985</t>
+          <t>PARROQUIA_462</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
@@ -20511,12 +20511,12 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>5985</t>
+          <t>462</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>PARROQUIA_5985</t>
+          <t>PARROQUIA_462</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
@@ -20549,12 +20549,12 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>5985</t>
+          <t>462</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>PARROQUIA_5985</t>
+          <t>PARROQUIA_462</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
@@ -20587,12 +20587,12 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>5985</t>
+          <t>462</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>PARROQUIA_5985</t>
+          <t>PARROQUIA_462</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
@@ -20625,12 +20625,12 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>5985</t>
+          <t>462</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>PARROQUIA_5985</t>
+          <t>PARROQUIA_462</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
@@ -20719,12 +20719,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3180</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PARROQUIA_3180</t>
+          <t>PARROQUIA_7</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -20748,12 +20748,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3195</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PARROQUIA_3195</t>
+          <t>PARROQUIA_10</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -20777,12 +20777,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3785</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PARROQUIA_3785</t>
+          <t>PARROQUIA_19</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -20806,12 +20806,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3985</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PARROQUIA_3985</t>
+          <t>PARROQUIA_33</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -20835,12 +20835,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4005</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PARROQUIA_4005</t>
+          <t>PARROQUIA_31</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -20864,12 +20864,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PARROQUIA_4205</t>
+          <t>PARROQUIA_64</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -20893,12 +20893,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4510</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PARROQUIA_4510</t>
+          <t>PARROQUIA_47</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -20922,12 +20922,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>644</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PARROQUIA_5825</t>
+          <t>PARROQUIA_644</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -20951,25 +20951,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2310</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PARROQUIA_2310</t>
+          <t>PARROQUIA_46</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>303</v>
+        <v>606</v>
       </c>
       <c r="E10" t="n">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="F10" t="n">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="G10" t="n">
-        <v>423</v>
+        <v>831</v>
       </c>
     </row>
     <row r="11">
@@ -20980,12 +20980,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3840</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PARROQUIA_3840</t>
+          <t>PARROQUIA_57</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -21009,12 +21009,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5650</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PARROQUIA_5650</t>
+          <t>PARROQUIA_18</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -21038,12 +21038,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6395</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PARROQUIA_6395</t>
+          <t>PARROQUIA_61</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -21067,12 +21067,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>430</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PARROQUIA_30</t>
+          <t>PARROQUIA_430</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -21096,12 +21096,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>841</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PARROQUIA_80</t>
+          <t>PARROQUIA_841</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -21125,25 +21125,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>161</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PARROQUIA_195</t>
+          <t>PARROQUIA_161</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>720</v>
+        <v>1738</v>
       </c>
       <c r="E16" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="F16" t="n">
-        <v>161</v>
+        <v>322</v>
       </c>
       <c r="G16" t="n">
-        <v>941</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="17">
@@ -21154,25 +21154,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PARROQUIA_430</t>
+          <t>PARROQUIA_188</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1307</v>
+        <v>2826</v>
       </c>
       <c r="E17" t="n">
-        <v>144</v>
+        <v>233</v>
       </c>
       <c r="F17" t="n">
-        <v>188</v>
+        <v>376</v>
       </c>
       <c r="G17" t="n">
-        <v>1639</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="18">
@@ -21183,12 +21183,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>1445</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PARROQUIA_440</t>
+          <t>PARROQUIA_1445</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -21212,12 +21212,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>1079</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PARROQUIA_625</t>
+          <t>PARROQUIA_1079</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -21241,12 +21241,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>381</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PARROQUIA_725</t>
+          <t>PARROQUIA_381</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -21270,12 +21270,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PARROQUIA_855</t>
+          <t>PARROQUIA_58</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -21299,12 +21299,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>865</t>
+          <t>194</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PARROQUIA_865</t>
+          <t>PARROQUIA_194</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -21328,12 +21328,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PARROQUIA_1400</t>
+          <t>PARROQUIA_75</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -21357,12 +21357,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PARROQUIA_1440</t>
+          <t>PARROQUIA_118</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -21386,12 +21386,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1475</t>
+          <t>351</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PARROQUIA_1475</t>
+          <t>PARROQUIA_351</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -21415,25 +21415,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2055</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PARROQUIA_2055</t>
+          <t>PARROQUIA_251</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1150</v>
+        <v>2710</v>
       </c>
       <c r="E26" t="n">
-        <v>85</v>
+        <v>271</v>
       </c>
       <c r="F26" t="n">
-        <v>251</v>
+        <v>502</v>
       </c>
       <c r="G26" t="n">
-        <v>1486</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="27">
@@ -21444,12 +21444,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2265</t>
+          <t>143</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PARROQUIA_2265</t>
+          <t>PARROQUIA_143</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -21473,12 +21473,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2275</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PARROQUIA_2275</t>
+          <t>PARROQUIA_102</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -21502,12 +21502,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2525</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PARROQUIA_2525</t>
+          <t>PARROQUIA_122</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -21531,12 +21531,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2530</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PARROQUIA_2530</t>
+          <t>PARROQUIA_153</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -21560,25 +21560,25 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2540</t>
+          <t>186</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PARROQUIA_2540</t>
+          <t>PARROQUIA_186</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2385</v>
+        <v>3213</v>
       </c>
       <c r="E31" t="n">
-        <v>113</v>
+        <v>382</v>
       </c>
       <c r="F31" t="n">
-        <v>186</v>
+        <v>372</v>
       </c>
       <c r="G31" t="n">
-        <v>2684</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="32">
@@ -21589,12 +21589,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2560</t>
+          <t>111</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PARROQUIA_2560</t>
+          <t>PARROQUIA_111</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -21618,12 +21618,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2690</t>
+          <t>219</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PARROQUIA_2690</t>
+          <t>PARROQUIA_219</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -21647,12 +21647,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2825</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PARROQUIA_2825</t>
+          <t>PARROQUIA_57</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -21676,12 +21676,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2855</t>
+          <t>612</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PARROQUIA_2855</t>
+          <t>PARROQUIA_612</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -21705,12 +21705,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2895</t>
+          <t>632</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PARROQUIA_2895</t>
+          <t>PARROQUIA_632</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -21734,12 +21734,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2925</t>
+          <t>509</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PARROQUIA_2925</t>
+          <t>PARROQUIA_509</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -21763,12 +21763,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2980</t>
+          <t>327</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PARROQUIA_2980</t>
+          <t>PARROQUIA_327</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -21792,12 +21792,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2985</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PARROQUIA_2985</t>
+          <t>PARROQUIA_250</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -21821,12 +21821,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>459</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PARROQUIA_3100</t>
+          <t>PARROQUIA_459</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -21850,12 +21850,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3325</t>
+          <t>717</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>PARROQUIA_3325</t>
+          <t>PARROQUIA_717</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -21879,12 +21879,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3475</t>
+          <t>429</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>PARROQUIA_3475</t>
+          <t>PARROQUIA_429</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -21908,12 +21908,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3925</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PARROQUIA_3925</t>
+          <t>PARROQUIA_72</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -21937,12 +21937,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4085</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PARROQUIA_4085</t>
+          <t>PARROQUIA_1234</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -21966,12 +21966,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4290</t>
+          <t>592</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PARROQUIA_4290</t>
+          <t>PARROQUIA_592</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -21995,25 +21995,25 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4325</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PARROQUIA_4325</t>
+          <t>PARROQUIA_188</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1519</v>
+        <v>2826</v>
       </c>
       <c r="E46" t="n">
-        <v>89</v>
+        <v>233</v>
       </c>
       <c r="F46" t="n">
-        <v>188</v>
+        <v>376</v>
       </c>
       <c r="G46" t="n">
-        <v>1796</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="47">
@@ -22024,12 +22024,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5015</t>
+          <t>5845</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PARROQUIA_5015</t>
+          <t>PARROQUIA_5845</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -22053,12 +22053,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5110</t>
+          <t>1789</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PARROQUIA_5110</t>
+          <t>PARROQUIA_1789</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -22082,12 +22082,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5220</t>
+          <t>5102</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PARROQUIA_5220</t>
+          <t>PARROQUIA_5102</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -22111,12 +22111,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>3574</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PARROQUIA_5235</t>
+          <t>PARROQUIA_3574</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -22140,12 +22140,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5260</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PARROQUIA_5260</t>
+          <t>PARROQUIA_4603</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -22169,12 +22169,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5325</t>
+          <t>1345</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PARROQUIA_5325</t>
+          <t>PARROQUIA_1345</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -22198,12 +22198,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5410</t>
+          <t>255</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PARROQUIA_5410</t>
+          <t>PARROQUIA_255</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -22227,12 +22227,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5435</t>
+          <t>181</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>PARROQUIA_5435</t>
+          <t>PARROQUIA_181</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -22256,12 +22256,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5530</t>
+          <t>454</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>PARROQUIA_5530</t>
+          <t>PARROQUIA_454</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -22285,12 +22285,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5535</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>PARROQUIA_5535</t>
+          <t>PARROQUIA_1049</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -22314,12 +22314,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>5540</t>
+          <t>3255</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>PARROQUIA_5540</t>
+          <t>PARROQUIA_3255</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -22343,12 +22343,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5575</t>
+          <t>615</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>PARROQUIA_5575</t>
+          <t>PARROQUIA_615</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -22372,12 +22372,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>PARROQUIA_5935</t>
+          <t>PARROQUIA_1367</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -22401,12 +22401,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>5985</t>
+          <t>462</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>PARROQUIA_5985</t>
+          <t>PARROQUIA_462</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -22470,7 +22470,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>191961</v>
+        <v>192885</v>
       </c>
     </row>
     <row r="3">
@@ -22485,7 +22485,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>183122</v>
+        <v>185691</v>
       </c>
     </row>
     <row r="4">
@@ -22500,7 +22500,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>74112</v>
+        <v>75008</v>
       </c>
     </row>
     <row r="5">
@@ -22515,7 +22515,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>56142</v>
+        <v>57213</v>
       </c>
     </row>
     <row r="6">
@@ -22530,7 +22530,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>49428</v>
+        <v>50019</v>
       </c>
     </row>
     <row r="7">
@@ -22545,7 +22545,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16252</v>
+        <v>16406</v>
       </c>
     </row>
     <row r="8">
@@ -22560,7 +22560,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10738</v>
+        <v>10961</v>
       </c>
     </row>
     <row r="9">
@@ -22575,7 +22575,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7426</v>
+        <v>7484</v>
       </c>
     </row>
     <row r="10">
@@ -22590,7 +22590,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7019</v>
+        <v>7068</v>
       </c>
     </row>
   </sheetData>
